--- a/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.12963144930644</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.721469192859717</v>
+        <v>5.721469192859716</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.947082337821128</v>
@@ -649,7 +649,7 @@
         <v>5.772484507544277</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>3.893638019470934</v>
+        <v>3.893638019470932</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.417523614486351</v>
+        <v>1.362594440931497</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4728386692119917</v>
+        <v>0.3375485645550571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.875084324215615</v>
+        <v>2.899888741865225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.431760719101812</v>
+        <v>3.109621998733644</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1423490351588733</v>
+        <v>0.103276479359795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.03715938965754158</v>
+        <v>-0.1578595818111168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8623313486993244</v>
+        <v>0.812545943536238</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>1.305255294629075</v>
+        <v>1.000292120395432</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.721392077812574</v>
+        <v>8.572700558744472</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.723106167351252</v>
+        <v>7.560913257626491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.911368486387975</v>
+        <v>9.952501749402577</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.356362150148398</v>
+        <v>8.194011332836418</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7.328835135079749</v>
+        <v>7.736489376938322</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8.110255433538377</v>
+        <v>6.155096191470069</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25.43156968987727</v>
+        <v>26.44447804043122</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13.2227087950982</v>
+        <v>11.26741564863867</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.01051649815907238</v>
+        <v>0.1255956274942136</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.198677842986696</v>
+        <v>1.257726418050829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.449899666738961</v>
+        <v>-0.4442594964179399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1042018352336239</v>
+        <v>-0.03742201755378895</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1084153095187753</v>
+        <v>-0.08556467761203151</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2203469735229267</v>
+        <v>0.2316437964609301</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3721797169603498</v>
+        <v>-0.352682639516874</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07538351448647511</v>
+        <v>-0.1638961776540728</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.49124248325171</v>
+        <v>5.146608850337114</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.649642567551245</v>
+        <v>6.650358090901253</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.765437830592821</v>
+        <v>2.84905314955672</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.985093052112288</v>
+        <v>2.924300875972726</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.512284130652786</v>
+        <v>6.401233482532501</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>9.7015959763613</v>
+        <v>10.80546165954328</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.830624925415611</v>
+        <v>5.718659300425294</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.774561774941903</v>
+        <v>6.907966177526858</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.994860516452202</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.604214120189438</v>
+        <v>3.604214120189437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>3.417768523760035</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.234866236141629</v>
+        <v>1.448454345087326</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.673867507978285</v>
+        <v>1.756507109879284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.140340265219591</v>
+        <v>1.097942287171683</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7773672973951775</v>
+        <v>0.5227414162404213</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01758175788611074</v>
+        <v>0.1404909029949131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5172212873801842</v>
+        <v>0.3964354762539024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4323222350040074</v>
+        <v>0.08418992130065087</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.09916561711013264</v>
+        <v>0.04786377847345767</v>
       </c>
     </row>
     <row r="12">
@@ -892,26 +892,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.093338243059728</v>
+        <v>6.928361933177447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.474284148821127</v>
+        <v>7.551261851906976</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.633339719222497</v>
+        <v>5.651276988392269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.74095029962921</v>
+        <v>6.717182250611503</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>14.69125666961713</v>
+        <v>18.8196090603114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>14.21000059058499</v>
+        <v>11.21833105878411</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>2.637614588496413</v>
+        <v>2.48297715663326</v>
       </c>
     </row>
     <row r="13">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5970259975459984</v>
+        <v>0.6182210952176416</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.95210798770754</v>
+        <v>4.080476977608751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.391686936082573</v>
+        <v>3.217683781928544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1444307417632184</v>
+        <v>-0.2214199343877741</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06149124293567512</v>
+        <v>0.01690481105502833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.209374856609287</v>
+        <v>1.179044633920979</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.12638447457361</v>
+        <v>1.044635245355621</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5209206392068295</v>
+        <v>-0.3198523450813361</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.59781746169392</v>
+        <v>6.388812334888132</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.40073042372083</v>
+        <v>10.65621217839975</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.115919809822607</v>
+        <v>9.292114258722494</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.438204729218031</v>
+        <v>3.562750971176719</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.386183057084702</v>
+        <v>3.102968096569488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15.79906553539557</v>
+        <v>17.92327500792253</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13.36543606135684</v>
+        <v>11.57443602553829</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8.544614094288187</v>
+        <v>8.070310830355041</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1035,7 @@
         <v>2.821151670028014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.127885190934475</v>
+        <v>5.127885190934474</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>10.90919647595466</v>
@@ -1058,24 +1058,24 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.964698426681234</v>
+        <v>1.930673877232001</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.471999051844952</v>
+        <v>3.240776312132528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7187202726251741</v>
+        <v>0.587410897836358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.225027293188973</v>
+        <v>2.097867232061561</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>0.6698980971704179</v>
+        <v>0.6329212359115447</v>
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>0.4834266142787932</v>
+        <v>0.3664211680825704</v>
       </c>
     </row>
     <row r="18">
@@ -1086,24 +1086,24 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.080109559966386</v>
+        <v>8.911466407808115</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.28834866770437</v>
+        <v>12.88476907870593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.054883318841867</v>
+        <v>5.861224216169461</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.90078678364682</v>
+        <v>7.915031523306122</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>17.6483535815608</v>
+        <v>19.28014530652858</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>5.081787353038261</v>
+        <v>4.92836725517481</v>
       </c>
     </row>
     <row r="19">
@@ -1127,7 +1127,7 @@
         <v>2.674715626057985</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.881210989426897</v>
+        <v>3.881210989426894</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.722041613211729</v>
@@ -1139,7 +1139,7 @@
         <v>2.430306673494568</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.398353559168083</v>
+        <v>1.398353559168082</v>
       </c>
     </row>
     <row r="20">
@@ -1150,28 +1150,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.760627381391161</v>
+        <v>1.744067396178688</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.004073206941888</v>
+        <v>1.775377522185099</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3872160147218433</v>
+        <v>0.2019195828546149</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.164265976097886</v>
+        <v>1.624267916839175</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3670688783933202</v>
+        <v>0.2601037151020992</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6277990275300738</v>
+        <v>0.36007400137829</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2284739051100858</v>
+        <v>-0.2948631999086334</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2473444089778714</v>
+        <v>0.3466596150943096</v>
       </c>
     </row>
     <row r="21">
@@ -1182,26 +1182,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.309884265102385</v>
+        <v>8.428406666751926</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.34615655853192</v>
+        <v>7.489908901806105</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.477744268699601</v>
+        <v>5.562017617613174</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.408096487976725</v>
+        <v>6.635526549512144</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>10.21620679315708</v>
+        <v>13.46240960621791</v>
       </c>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>13.98937481400393</v>
+        <v>14.34347939467213</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.273705646663688</v>
+        <v>3.852907274997766</v>
       </c>
     </row>
     <row r="22">
@@ -1248,28 +1248,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.176281237764897</v>
+        <v>1.069799784445556</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.271417697454595</v>
+        <v>3.160183707376834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6766829125797424</v>
+        <v>-0.6536561670837412</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.129859746960601</v>
+        <v>1.957392534521676</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.205765529991872</v>
+        <v>0.2240183665673841</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.350850414147982</v>
+        <v>1.341552281393211</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2325168354632929</v>
+        <v>-0.2177425426827911</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3250205710452434</v>
+        <v>0.2997001586495194</v>
       </c>
     </row>
     <row r="24">
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.912067119516013</v>
+        <v>6.05268745376116</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.209475636667174</v>
+        <v>7.426331526015958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.218643093107109</v>
+        <v>3.403760928183095</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.135282750922459</v>
+        <v>7.305990297587344</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.676776545209259</v>
+        <v>2.848918105709453</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>12.79129375793802</v>
+        <v>11.23206319490393</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.883763579962216</v>
+        <v>2.045454394565015</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.006175194947642</v>
+        <v>2.04062485869978</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>3.118836087703946</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>6.927585957871017</v>
+        <v>6.927585957871019</v>
       </c>
     </row>
     <row r="26">
@@ -1348,28 +1348,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.8114834975431251</v>
+        <v>-0.9640531173668871</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.080851737448878</v>
+        <v>2.190644312500565</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.280410882307892</v>
+        <v>1.399960190489062</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8904072915989212</v>
+        <v>0.8520671706724474</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2663183230089861</v>
+        <v>-0.284853448188898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.324313546087756</v>
+        <v>1.371833281539821</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.617092280775184</v>
+        <v>0.8112188486212372</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.8023117119614301</v>
+        <v>0.6212950315818382</v>
       </c>
     </row>
     <row r="27">
@@ -1380,25 +1380,25 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.604072395502396</v>
+        <v>2.523616347042501</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.420507276667768</v>
+        <v>5.339654058367949</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.259614410089256</v>
+        <v>4.355767850717307</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.461011450145742</v>
+        <v>2.556160610484222</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.631349789630453</v>
+        <v>1.472474464936627</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17.8190775292237</v>
+        <v>17.18318056409139</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9.864286765122785</v>
+        <v>10.54864876737867</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
     </row>
@@ -1423,7 +1423,7 @@
         <v>2.87269678810577</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.180543007946193</v>
+        <v>3.180543007946194</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>1.376907360033012</v>
@@ -1435,7 +1435,7 @@
         <v>2.249706295343539</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>1.457853599291178</v>
+        <v>1.457853599291179</v>
       </c>
     </row>
     <row r="29">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.211126767615859</v>
+        <v>2.173102469565743</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.816693123672622</v>
+        <v>3.824292577811324</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.140304209023484</v>
+        <v>2.057330158623405</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.389180822683541</v>
+        <v>2.38780185369129</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8377779439290916</v>
+        <v>0.8438751673625086</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>2.278558596138256</v>
+        <v>2.260385596812485</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.314083383765437</v>
+        <v>1.309197940912486</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.9152702916187836</v>
+        <v>0.9304390770652931</v>
       </c>
     </row>
     <row r="30">
@@ -1478,28 +1478,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.06033163925753</v>
+        <v>3.878063272834015</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.730598330145803</v>
+        <v>5.681895431504177</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.711480436571282</v>
+        <v>3.722997565226859</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.912307111556226</v>
+        <v>4.032059390923529</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.241371513236181</v>
+        <v>2.100665002654981</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5.59022527895242</v>
+        <v>5.320766503302611</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3.602444302661751</v>
+        <v>3.647390536646646</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2.122590181670235</v>
+        <v>2.325676674789016</v>
       </c>
     </row>
     <row r="31">
